--- a/output/05.HC/MWW_test_clust_HC_essentials_only.xlsx
+++ b/output/05.HC/MWW_test_clust_HC_essentials_only.xlsx
@@ -53,49 +53,49 @@
     <t xml:space="preserve">P</t>
   </si>
   <si>
+    <t xml:space="preserve">Na</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mg</t>
   </si>
   <si>
-    <t xml:space="preserve">Na</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K</t>
-  </si>
-  <si>
     <t xml:space="preserve">Fe</t>
   </si>
   <si>
     <t xml:space="preserve">Zn</t>
   </si>
   <si>
+    <t xml:space="preserve">Cu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Co</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sr</t>
   </si>
   <si>
-    <t xml:space="preserve">Cu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ni</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cd</t>
   </si>
   <si>
-    <t xml:space="preserve">As</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Co</t>
+    <t xml:space="preserve">Pb</t>
   </si>
   <si>
     <t xml:space="preserve">Ag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pb</t>
   </si>
 </sst>
 </file>
@@ -659,10 +659,10 @@
         <v>7</v>
       </c>
       <c r="D14" t="n">
-        <v>0.237543330422587</v>
+        <v>0.00910269640919796</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -676,10 +676,10 @@
         <v>9</v>
       </c>
       <c r="D15" t="n">
-        <v>0.732546864899806</v>
+        <v>0.0145442792501616</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -693,7 +693,7 @@
         <v>10</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0000238151940938319</v>
+        <v>0.0000833531793284115</v>
       </c>
       <c r="E16" t="s">
         <v>8</v>
@@ -710,7 +710,7 @@
         <v>9</v>
       </c>
       <c r="D17" t="n">
-        <v>0.754578754578755</v>
+        <v>0.851814851814852</v>
       </c>
       <c r="E17" t="s">
         <v>11</v>
@@ -727,7 +727,7 @@
         <v>10</v>
       </c>
       <c r="D18" t="n">
-        <v>0.000164541341011929</v>
+        <v>0.000329082682023858</v>
       </c>
       <c r="E18" t="s">
         <v>8</v>
@@ -744,7 +744,7 @@
         <v>10</v>
       </c>
       <c r="D19" t="n">
-        <v>0.000799200799200799</v>
+        <v>0.035964035964036</v>
       </c>
       <c r="E19" t="s">
         <v>8</v>
@@ -761,7 +761,7 @@
         <v>7</v>
       </c>
       <c r="D20" t="n">
-        <v>0.00910269640919796</v>
+        <v>0.000793839803127729</v>
       </c>
       <c r="E20" t="s">
         <v>8</v>
@@ -778,10 +778,10 @@
         <v>9</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0145442792501616</v>
+        <v>0.462346477052359</v>
       </c>
       <c r="E21" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22">
@@ -795,10 +795,10 @@
         <v>10</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0000833531793284115</v>
+        <v>0.710300071445582</v>
       </c>
       <c r="E22" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23">
@@ -812,10 +812,10 @@
         <v>9</v>
       </c>
       <c r="D23" t="n">
-        <v>0.851814851814852</v>
+        <v>0.00266400266400266</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
@@ -829,7 +829,7 @@
         <v>10</v>
       </c>
       <c r="D24" t="n">
-        <v>0.000329082682023858</v>
+        <v>0.00156314273961333</v>
       </c>
       <c r="E24" t="s">
         <v>8</v>
@@ -846,10 +846,10 @@
         <v>10</v>
       </c>
       <c r="D25" t="n">
-        <v>0.035964035964036</v>
+        <v>0.388411588411588</v>
       </c>
       <c r="E25" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26">
@@ -863,10 +863,10 @@
         <v>7</v>
       </c>
       <c r="D26" t="n">
-        <v>0.000793839803127729</v>
+        <v>0.237543330422587</v>
       </c>
       <c r="E26" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27">
@@ -880,7 +880,7 @@
         <v>9</v>
       </c>
       <c r="D27" t="n">
-        <v>0.462346477052359</v>
+        <v>0.732546864899806</v>
       </c>
       <c r="E27" t="s">
         <v>11</v>
@@ -897,10 +897,10 @@
         <v>10</v>
       </c>
       <c r="D28" t="n">
-        <v>0.710300071445582</v>
+        <v>0.0000238151940938319</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
@@ -914,10 +914,10 @@
         <v>9</v>
       </c>
       <c r="D29" t="n">
-        <v>0.00266400266400266</v>
+        <v>0.754578754578755</v>
       </c>
       <c r="E29" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30">
@@ -931,7 +931,7 @@
         <v>10</v>
       </c>
       <c r="D30" t="n">
-        <v>0.00156314273961333</v>
+        <v>0.000164541341011929</v>
       </c>
       <c r="E30" t="s">
         <v>8</v>
@@ -948,10 +948,10 @@
         <v>10</v>
       </c>
       <c r="D31" t="n">
-        <v>0.388411588411588</v>
+        <v>0.000799200799200799</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32">
@@ -1169,10 +1169,10 @@
         <v>7</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0203487602868408</v>
+        <v>0.544759334233018</v>
       </c>
       <c r="E44" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45">
@@ -1186,7 +1186,7 @@
         <v>9</v>
       </c>
       <c r="D45" t="n">
-        <v>0.660471881060116</v>
+        <v>0.180187459599224</v>
       </c>
       <c r="E45" t="s">
         <v>11</v>
@@ -1203,10 +1203,10 @@
         <v>10</v>
       </c>
       <c r="D46" t="n">
-        <v>0.130804953560372</v>
+        <v>0.00115503691355085</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47">
@@ -1220,10 +1220,10 @@
         <v>9</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0126540126540127</v>
+        <v>0.572760572760573</v>
       </c>
       <c r="E47" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48">
@@ -1237,10 +1237,10 @@
         <v>10</v>
       </c>
       <c r="D48" t="n">
-        <v>0.235870012340601</v>
+        <v>0.0273961332784862</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49">
@@ -1254,7 +1254,7 @@
         <v>10</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0663336663336663</v>
+        <v>0.223776223776224</v>
       </c>
       <c r="E49" t="s">
         <v>11</v>
@@ -1271,7 +1271,7 @@
         <v>7</v>
       </c>
       <c r="D50" t="n">
-        <v>0.544759334233018</v>
+        <v>0.151755709031251</v>
       </c>
       <c r="E50" t="s">
         <v>11</v>
@@ -1288,7 +1288,7 @@
         <v>9</v>
       </c>
       <c r="D51" t="n">
-        <v>0.180187459599224</v>
+        <v>0.660471881060116</v>
       </c>
       <c r="E51" t="s">
         <v>11</v>
@@ -1305,7 +1305,7 @@
         <v>10</v>
       </c>
       <c r="D52" t="n">
-        <v>0.00115503691355085</v>
+        <v>0.00228625863300786</v>
       </c>
       <c r="E52" t="s">
         <v>8</v>
@@ -1322,7 +1322,7 @@
         <v>9</v>
       </c>
       <c r="D53" t="n">
-        <v>0.572760572760573</v>
+        <v>0.413586413586414</v>
       </c>
       <c r="E53" t="s">
         <v>11</v>
@@ -1339,10 +1339,10 @@
         <v>10</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0273961332784862</v>
+        <v>0.480707527766351</v>
       </c>
       <c r="E54" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55">
@@ -1356,10 +1356,10 @@
         <v>10</v>
       </c>
       <c r="D55" t="n">
-        <v>0.223776223776224</v>
+        <v>0.0027972027972028</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56">
@@ -1373,10 +1373,10 @@
         <v>7</v>
       </c>
       <c r="D56" t="n">
-        <v>0.151755709031251</v>
+        <v>0.0000264613267709243</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57">
@@ -1390,10 +1390,10 @@
         <v>9</v>
       </c>
       <c r="D57" t="n">
-        <v>0.660471881060116</v>
+        <v>0.0476729153199741</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58">
@@ -1407,7 +1407,7 @@
         <v>10</v>
       </c>
       <c r="D58" t="n">
-        <v>0.00228625863300786</v>
+        <v>0.00565610859728507</v>
       </c>
       <c r="E58" t="s">
         <v>8</v>
@@ -1424,10 +1424,10 @@
         <v>9</v>
       </c>
       <c r="D59" t="n">
-        <v>0.413586413586414</v>
+        <v>0.000666000666000666</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60">
@@ -1441,10 +1441,10 @@
         <v>10</v>
       </c>
       <c r="D60" t="n">
-        <v>0.480707527766351</v>
+        <v>0.0000822706705059646</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61">
@@ -1458,7 +1458,7 @@
         <v>10</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0027972027972028</v>
+        <v>0.0003996003996004</v>
       </c>
       <c r="E61" t="s">
         <v>8</v>
@@ -1679,7 +1679,7 @@
         <v>7</v>
       </c>
       <c r="D74" t="n">
-        <v>0.363511807596544</v>
+        <v>0.341689072477986</v>
       </c>
       <c r="E74" t="s">
         <v>11</v>
@@ -1696,7 +1696,7 @@
         <v>9</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0273109243697479</v>
+        <v>0.00108166488475667</v>
       </c>
       <c r="E75" t="s">
         <v>8</v>
@@ -1713,7 +1713,7 @@
         <v>10</v>
       </c>
       <c r="D76" t="n">
-        <v>0.111943319838057</v>
+        <v>0.361573522385796</v>
       </c>
       <c r="E76" t="s">
         <v>11</v>
@@ -1730,10 +1730,10 @@
         <v>9</v>
       </c>
       <c r="D77" t="n">
-        <v>0.228438228438228</v>
+        <v>0.000666000666000666</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78">
@@ -1747,10 +1747,10 @@
         <v>10</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0152200740436035</v>
+        <v>1</v>
       </c>
       <c r="E78" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79">
@@ -1764,7 +1764,7 @@
         <v>10</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0027972027972028</v>
+        <v>0.0290951317901257</v>
       </c>
       <c r="E79" t="s">
         <v>8</v>
@@ -1781,7 +1781,7 @@
         <v>7</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0000264613267709243</v>
+        <v>0.0203487602868408</v>
       </c>
       <c r="E80" t="s">
         <v>8</v>
@@ -1798,10 +1798,10 @@
         <v>9</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0476729153199741</v>
+        <v>0.660471881060116</v>
       </c>
       <c r="E81" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="82">
@@ -1815,10 +1815,10 @@
         <v>10</v>
       </c>
       <c r="D82" t="n">
-        <v>0.00565610859728507</v>
+        <v>0.130804953560372</v>
       </c>
       <c r="E82" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="83">
@@ -1832,7 +1832,7 @@
         <v>9</v>
       </c>
       <c r="D83" t="n">
-        <v>0.000666000666000666</v>
+        <v>0.0126540126540127</v>
       </c>
       <c r="E83" t="s">
         <v>8</v>
@@ -1849,10 +1849,10 @@
         <v>10</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0000822706705059646</v>
+        <v>0.235870012340601</v>
       </c>
       <c r="E84" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="85">
@@ -1866,10 +1866,10 @@
         <v>10</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0003996003996004</v>
+        <v>0.0663336663336663</v>
       </c>
       <c r="E85" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="86">
@@ -1883,7 +1883,7 @@
         <v>7</v>
       </c>
       <c r="D86" t="n">
-        <v>0.341689072477986</v>
+        <v>0.363511807596544</v>
       </c>
       <c r="E86" t="s">
         <v>11</v>
@@ -1900,7 +1900,7 @@
         <v>9</v>
       </c>
       <c r="D87" t="n">
-        <v>0.00108166488475667</v>
+        <v>0.0273109243697479</v>
       </c>
       <c r="E87" t="s">
         <v>8</v>
@@ -1917,7 +1917,7 @@
         <v>10</v>
       </c>
       <c r="D88" t="n">
-        <v>0.361573522385796</v>
+        <v>0.111943319838057</v>
       </c>
       <c r="E88" t="s">
         <v>11</v>
@@ -1934,10 +1934,10 @@
         <v>9</v>
       </c>
       <c r="D89" t="n">
-        <v>0.000666000666000666</v>
+        <v>0.228438228438228</v>
       </c>
       <c r="E89" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="90">
@@ -1951,10 +1951,10 @@
         <v>10</v>
       </c>
       <c r="D90" t="n">
-        <v>1</v>
+        <v>0.0152200740436035</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91">
@@ -1968,7 +1968,7 @@
         <v>10</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0290951317901257</v>
+        <v>0.0027972027972028</v>
       </c>
       <c r="E91" t="s">
         <v>8</v>
@@ -1985,10 +1985,10 @@
         <v>7</v>
       </c>
       <c r="D92" t="n">
-        <v>0.535186298659275</v>
+        <v>0.00383653803899588</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="93">
@@ -2002,10 +2002,10 @@
         <v>9</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0498760230060749</v>
+        <v>0.404330963154493</v>
       </c>
       <c r="E93" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="94">
@@ -2019,7 +2019,7 @@
         <v>10</v>
       </c>
       <c r="D94" t="n">
-        <v>0.361392678921389</v>
+        <v>0.196343631890015</v>
       </c>
       <c r="E94" t="s">
         <v>11</v>
@@ -2036,10 +2036,10 @@
         <v>9</v>
       </c>
       <c r="D95" t="n">
-        <v>0.01998001998002</v>
+        <v>0.0592740592740593</v>
       </c>
       <c r="E95" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="96">
@@ -2053,10 +2053,10 @@
         <v>10</v>
       </c>
       <c r="D96" t="n">
-        <v>0.177665829328152</v>
+        <v>0.00810146447141977</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="97">
@@ -2070,10 +2070,10 @@
         <v>10</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0495504495504496</v>
+        <v>0.215514712957383</v>
       </c>
       <c r="E97" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="98">
@@ -2087,10 +2087,10 @@
         <v>7</v>
       </c>
       <c r="D98" t="n">
-        <v>0.00383653803899588</v>
+        <v>0.535186298659275</v>
       </c>
       <c r="E98" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="99">
@@ -2104,10 +2104,10 @@
         <v>9</v>
       </c>
       <c r="D99" t="n">
-        <v>0.404330963154493</v>
+        <v>0.0498760230060749</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="100">
@@ -2121,7 +2121,7 @@
         <v>10</v>
       </c>
       <c r="D100" t="n">
-        <v>0.196343631890015</v>
+        <v>0.361392678921389</v>
       </c>
       <c r="E100" t="s">
         <v>11</v>
@@ -2138,10 +2138,10 @@
         <v>9</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0592740592740593</v>
+        <v>0.01998001998002</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="102">
@@ -2155,10 +2155,10 @@
         <v>10</v>
       </c>
       <c r="D102" t="n">
-        <v>0.00810146447141977</v>
+        <v>0.177665829328152</v>
       </c>
       <c r="E102" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="103">
@@ -2172,10 +2172,10 @@
         <v>10</v>
       </c>
       <c r="D103" t="n">
-        <v>0.215514712957383</v>
+        <v>0.0495504495504496</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
